--- a/example-data-in.xlsx
+++ b/example-data-in.xlsx
@@ -8,42 +8,222 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Blad1!$A$8:$H$8</definedName>
+    <definedName function="false" hidden="false" name="Headers" vbProcedure="false">Blad1!$A$8:$L$8</definedName>
+    <definedName function="false" hidden="false" name="Summary" vbProcedure="false">Blad1!$A$2:$L$2</definedName>
+    <definedName function="false" hidden="false" name="Title" vbProcedure="false">Blad1!$A$1:$L$1</definedName>
+    <definedName function="false" hidden="false" name="Transactions" vbProcedure="false">Blad1!$A$9:$L$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Blad1!$A$8:$H$28</definedName>
+  </definedNames>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">AmmuNation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICA, LAPPIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tweed</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">Transaktioner Privatkonto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Hjelm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skapad 2020-12-06 10:17 +01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alla insättningar och uttag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valuta: SEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-11-20 till 2020-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clearingnummer: XXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontonummer: XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bokföringsdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaktionsdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valutadag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beskrivning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belopp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bokfört saldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICA LAPPKARRSBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLKTANDVÅRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMMAUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMKÖP DJURGÅRDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURGER KING ODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAS OHLSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADIUM DROTTNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84319530719301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Överföring via internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMKÖP SOLNA MAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB STORSTOCKHOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAS OHLSON 218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFESSORN RESTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -60,6 +240,35 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -77,8 +286,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -102,99 +318,771 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="22.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>120.59</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>44167</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>44168</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>799</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>44169</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>9.95</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>-97.2</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>352.33</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-138</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>449.53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>-567</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>587.53</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-127.9</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>1154.53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>-562.61</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>1282.43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1845.04</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-474.29</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1888.04</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-186.75</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>2362.33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>2549.08</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>1550.08</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-25.95</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>884.08</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-78.1</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>910.03</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-49.95</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>988.13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1038.08</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-148</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1063.98</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1211.98</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-65.9</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>323.98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>-99.8</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>389.88</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>-165</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>489.68</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-18.95</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>654.68</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A8:H8"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>